--- a/pred_ohlcv/54_21/2019-11-18 WTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-18 WTC ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>19726.5557</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>19751.4297</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -626,7 +626,7 @@
         <v>20251.4297</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>20251.4297</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>20263.5713</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>20524.3713</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>20174.04129999999</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>20426.77619999999</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>20425.77619999999</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>20426.75839999999</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>20348.32509999999</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>18173.198</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>1159.828599999998</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>1111.408599999998</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>1394.092299999998</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>3388.492199999998</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>4184.360199999997</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>4121.060199999997</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>4254.500199999997</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>4256.500199999997</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>3669.096199999997</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>3642.096199999997</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>4432.096199999996</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>4381.096199999996</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>4931.096199999996</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>4931.096199999996</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>4450.095999999996</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>6000.095999999996</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>6000.095999999996</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>4655.095999999996</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>4655.095999999996</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>4655.095999999996</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>4845.095999999996</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>5420.213399999996</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>5421.213399999996</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>5921.755999999996</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>7323.755999999996</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>7411.755999999996</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>7435.755999999996</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>7435.755999999996</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>7650.755999999996</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>2165.755999999996</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>2994.943999999995</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>3594.943999999995</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>4014.943999999995</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-18 WTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-18 WTC ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>19726.5557</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>19751.4297</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>19751.4297</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>20251.4297</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>18685.9424</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>18173.198</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>17797.2109</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>3669.096199999997</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>3642.096199999997</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>4381.096199999996</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>4931.096199999996</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>6000.095999999996</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>4655.095999999996</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>4655.095999999996</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>4655.095999999996</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>4845.095999999996</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>5420.213399999996</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>5420.213399999996</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>5421.213399999996</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>5921.755999999996</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>7411.755999999996</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>7435.755999999996</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>7435.755999999996</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>7650.755999999996</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>7655.755999999996</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>2165.755999999996</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>2121.777499999996</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>1406.992499999996</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>1542.397699999996</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>1012.295399999996</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>2612.295399999995</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>2262.295399999995</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>3796.580499999995</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>3781.341699999995</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>2994.943999999995</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>3594.943999999995</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>3594.943999999995</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>4014.943999999995</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>4014.943999999995</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>4014.943999999995</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>4014.943999999995</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>4014.943999999995</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>4014.943999999995</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>4014.943999999995</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>3814.943999999995</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>4365.370199999996</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>4365.370199999996</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>8433.899399999995</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
